--- a/biology/Médecine/Claude-Adolphe_Nativelle/Claude-Adolphe_Nativelle.xlsx
+++ b/biology/Médecine/Claude-Adolphe_Nativelle/Claude-Adolphe_Nativelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude-Adolphe Nativelle, né le 25 juin 1812 à Paris et mort le 25 mars 1889 à Bourg-la-Reine, est un pharmacien et chimiste français, découvreur de la digitaline cristallisée en 1868[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude-Adolphe Nativelle, né le 25 juin 1812 à Paris et mort le 25 mars 1889 à Bourg-la-Reine, est un pharmacien et chimiste français, découvreur de la digitaline cristallisée en 1868.
 </t>
         </is>
       </c>
@@ -513,21 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance
-Il est l'aîné des quatre enfants d'un boucher originaire de Normandie installé place du Marché-Saint-Jean, à Paris, et de Geneviève Noblesse, marchande de plantes médicinales. Trois autres enfants viendront bientôt le rejoindre ; deux enfants qui meurent en bas âge et son jeune frère Pierre-Hippolyte, né en 1818.
+          <t>Enfance</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est l'aîné des quatre enfants d'un boucher originaire de Normandie installé place du Marché-Saint-Jean, à Paris, et de Geneviève Noblesse, marchande de plantes médicinales. Trois autres enfants viendront bientôt le rejoindre ; deux enfants qui meurent en bas âge et son jeune frère Pierre-Hippolyte, né en 1818.
 Son père tombe malade et doit quitter sa boucherie, il aide son épouse dans son petit commerce de vente d'herbes médicinales, mais il disparaît rapidement. La mère a toutes les peines à faire vivre sa famille, elle se tue à la tâche et disparaît à son tour, laissant ses deux fils aux bons soins d'une institution charitable où les enfants sont placés.
 Claude apprend à faire des brosses et son jeune frère se tourne vers l'horlogerie. Monsieur Foisol, son parrain, chapelier, veut apprendre la chapellerie à son filleul mais il finit par se laisser convaincre de la vocation de celui-ci à s'occuper des herbes médicinales.
-1826-1841: Apprenti pharmacien
-Monsieur Foisol lui trouve une place d'apprenti chez un apothicaire de la porte Saint-Martin. Malheureusement, il n'y apprend rien, son maître lui faisant astiquer les ustensiles et faire les courses. Nouvelle place chez Guillery, pharmacien rue Montorgueil, où il va rester quatre ans. Il s'inscrit à l'École de préparation en pharmacie. Pendant les journées de 1830, il soigne les blessés et en 1832, les malades pendant l'épidémie de choléra. En 1833, il entre à la pharmacie Lesage et Picou au 30 boulevard du Temple. À peine un an plus tard il entre à la pharmacie Séguin au 378 rue Saint-Honoré, où il fait un stage de vingt mois. Sa première publication irrite son employeur et Nativelle le quitte le jour même.
-Le 1er février 1836 il entre à la pharmacie Quesneville, dans le quartier de la Monnaie, où il reste près d'un an et demi et prend ses 6e et 7e inscriptions à l'École de pharmacie. En 1840, il revient habiter chez Quesneville, rue du Petit-Pont, où il est son principal élève, c'est dans ce cadre qu'il se trouve à servir et converser avec Sainte-Beuve qui se fait livrer les flacons de son ordonnance à l'Institut.
-En 1841, il obtient son diplôme avec une thèse sur la racine de jalap la même année. Cela l'autorise à s'installer pharmacien mais ses moyens financiers ne le lui permettant pas, il continue ses recherches. Il parvient à se faire admettre au sein d'une mission d'étude en Colombie pour étudier et expérimenter de nouvelles méthodes de récolte du quinquina. Il débarque donc à Carthagène en 1843, mais des incompatibilités avec ses collègues le font rentrer en France avant la fin de l'expédition.
-1844-1885: Pharmacien
-En 1847, il s'installe à son compte en reprenant la pharmacie d'Honoré Cussol au no 24 de la rue aujourd'hui baptisée rue Charlot. Il va bientôt laisser ce laboratoire devenu trop exigu à son principal élève et s'installe au 23 boulevard du Port-Royal, près de l'hôpital Ricord, aujourd'hui absorbé par Cochin.
-En 1870 il vend sa pharmacie et achète un pavillon au no 5 de la rue Angot, à Bourg-la-Reine. Pendant le siège de Paris il sert dans les ambulances. En 1872, il reçoit la médaille Orfila et le prix de 6 000 francs et ouvre une annexe, boulevard de l'Église, au laboratoire qu'il a dans son pavillon.
-Vie de famille
-Contre toute attente, ce célibataire convole à 63 ans avec Joséphine Constance Allaume, une ex-institutrice d'une quarantaine d'années. Le 1er mars 1885 madame Nativelle meurt, laissant de nouveau seul le chercheur qui sera entouré dans ses derniers jours par une filleule et sa mère.
-Décès
-Il meurt le 25 mars 1889 dans son pavillon de Bourg-la-Reine, à la suite de l'épidémie de grippe. Il repose dans le cimetière de cette localité qu'il a tant aimée. Sur la tombe, on peut lire cette épitaphe : « Claude Adolphe Nativelle, pharmacien-chimiste, Lauréat de l'Académie de Médecine de Paris, membre de plusieurs sociétés savantes, décédé à Bourg la Reine (Seine), le 25 mars 1889, à l'âge de 77 ans ».
 </t>
         </is>
       </c>
@@ -553,10 +559,163 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1826-1841: Apprenti pharmacien</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monsieur Foisol lui trouve une place d'apprenti chez un apothicaire de la porte Saint-Martin. Malheureusement, il n'y apprend rien, son maître lui faisant astiquer les ustensiles et faire les courses. Nouvelle place chez Guillery, pharmacien rue Montorgueil, où il va rester quatre ans. Il s'inscrit à l'École de préparation en pharmacie. Pendant les journées de 1830, il soigne les blessés et en 1832, les malades pendant l'épidémie de choléra. En 1833, il entre à la pharmacie Lesage et Picou au 30 boulevard du Temple. À peine un an plus tard il entre à la pharmacie Séguin au 378 rue Saint-Honoré, où il fait un stage de vingt mois. Sa première publication irrite son employeur et Nativelle le quitte le jour même.
+Le 1er février 1836 il entre à la pharmacie Quesneville, dans le quartier de la Monnaie, où il reste près d'un an et demi et prend ses 6e et 7e inscriptions à l'École de pharmacie. En 1840, il revient habiter chez Quesneville, rue du Petit-Pont, où il est son principal élève, c'est dans ce cadre qu'il se trouve à servir et converser avec Sainte-Beuve qui se fait livrer les flacons de son ordonnance à l'Institut.
+En 1841, il obtient son diplôme avec une thèse sur la racine de jalap la même année. Cela l'autorise à s'installer pharmacien mais ses moyens financiers ne le lui permettant pas, il continue ses recherches. Il parvient à se faire admettre au sein d'une mission d'étude en Colombie pour étudier et expérimenter de nouvelles méthodes de récolte du quinquina. Il débarque donc à Carthagène en 1843, mais des incompatibilités avec ses collègues le font rentrer en France avant la fin de l'expédition.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Claude-Adolphe_Nativelle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude-Adolphe_Nativelle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1844-1885: Pharmacien</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1847, il s'installe à son compte en reprenant la pharmacie d'Honoré Cussol au no 24 de la rue aujourd'hui baptisée rue Charlot. Il va bientôt laisser ce laboratoire devenu trop exigu à son principal élève et s'installe au 23 boulevard du Port-Royal, près de l'hôpital Ricord, aujourd'hui absorbé par Cochin.
+En 1870 il vend sa pharmacie et achète un pavillon au no 5 de la rue Angot, à Bourg-la-Reine. Pendant le siège de Paris il sert dans les ambulances. En 1872, il reçoit la médaille Orfila et le prix de 6 000 francs et ouvre une annexe, boulevard de l'Église, au laboratoire qu'il a dans son pavillon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Claude-Adolphe_Nativelle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude-Adolphe_Nativelle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vie de famille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contre toute attente, ce célibataire convole à 63 ans avec Joséphine Constance Allaume, une ex-institutrice d'une quarantaine d'années. Le 1er mars 1885 madame Nativelle meurt, laissant de nouveau seul le chercheur qui sera entouré dans ses derniers jours par une filleule et sa mère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Claude-Adolphe_Nativelle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude-Adolphe_Nativelle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Décès</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il meurt le 25 mars 1889 dans son pavillon de Bourg-la-Reine, à la suite de l'épidémie de grippe. Il repose dans le cimetière de cette localité qu'il a tant aimée. Sur la tombe, on peut lire cette épitaphe : « Claude Adolphe Nativelle, pharmacien-chimiste, Lauréat de l'Académie de Médecine de Paris, membre de plusieurs sociétés savantes, décédé à Bourg la Reine (Seine), le 25 mars 1889, à l'âge de 77 ans ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Claude-Adolphe_Nativelle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claude-Adolphe_Nativelle</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1835 duquel il rédige sa première communication à l'Académie des sciences sur le quinquina, et envoie un échantillon de sulfate de quinquina obtenu sans alcool et par un procédé bon marché. En 1837 il entre chez le chimiste Pierre Deleschamps. Il y fait des recherches sur le quinquina et dépose deux communications à l'Académie.
 En 1841 il dépose une nouvelle communication sur les matières cristallisables.  À partir de ce moment il se désintéresse de la quinine et se passionne pour la digitale.
@@ -566,33 +725,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Claude-Adolphe_Nativelle</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Claude-Adolphe_Nativelle</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est lauréat le 23 janvier 1872 du prix Orfila de l'Académie de médecine pour sa découverte de la digitaline et reçoit la médaille et le prix de 6 000 francs[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est lauréat le 23 janvier 1872 du prix Orfila de l'Académie de médecine pour sa découverte de la digitaline et reçoit la médaille et le prix de 6 000 francs.
 </t>
         </is>
       </c>
